--- a/COMP1631/Week6/Module_7_apply.xlsx
+++ b/COMP1631/Week6/Module_7_apply.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makash\Documents\teaching\Teaching\COMP1631\Week6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31CC03B-6B6E-4735-9E10-A06CD9083698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F430D8-9CC6-49D0-8ECC-28650E7E7C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="6" r:id="rId1"/>
@@ -31,6 +31,9 @@
     <definedName name="Walkup">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="8" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="133">
   <si>
     <t>Note: Do not edit this sheet. If your name does not appear in cell B6, please download a new copy of the file from the SAM website.</t>
   </si>
@@ -722,6 +725,18 @@
       </rPr>
       <t xml:space="preserve"> as a number with zero decimal places.</t>
     </r>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of 2021</t>
+  </si>
+  <si>
+    <t>Sum of 2022</t>
+  </si>
+  <si>
+    <t>Sum of 2023</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1043,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1076,6 +1091,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1088,24 +1115,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent5" xfId="7" builtinId="46"/>
@@ -1193,6 +1211,264 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Administrator" refreshedDate="45342.837287037037" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{8F3EC8C1-55F2-466F-A94E-DA2D1618D460}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="AcademicGroups"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Group Name" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Computing Club"/>
+        <s v="Astronomy Society"/>
+        <s v="Humanities and English Club"/>
+        <s v="Environmental Management Club"/>
+        <s v="Communication Studies Club"/>
+        <s v="Nursing Club"/>
+        <s v="History Club"/>
+        <s v="Psychology Association for Students"/>
+        <s v="Investigative Forensics Club"/>
+        <s v="Accounting and Finance Forum"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Type" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Activities" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Field"/>
+        <s v="Professional"/>
+        <s v="Service"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Office" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="2021" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="54"/>
+    </cacheField>
+    <cacheField name="2022" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6" maxValue="81"/>
+    </cacheField>
+    <cacheField name="2023" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="93"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <x v="0"/>
+    <s v="Academic"/>
+    <x v="0"/>
+    <s v="Public"/>
+    <n v="54"/>
+    <n v="81"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Academic"/>
+    <x v="0"/>
+    <s v="Private"/>
+    <n v="37"/>
+    <n v="51"/>
+    <n v="76"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Academic"/>
+    <x v="1"/>
+    <s v="None"/>
+    <n v="47"/>
+    <n v="54"/>
+    <n v="64"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Academic"/>
+    <x v="2"/>
+    <s v="Private"/>
+    <n v="45"/>
+    <n v="44"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Academic"/>
+    <x v="1"/>
+    <s v="Public"/>
+    <n v="30"/>
+    <n v="32"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Academic"/>
+    <x v="2"/>
+    <s v="Private"/>
+    <n v="44"/>
+    <n v="47"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Academic"/>
+    <x v="1"/>
+    <s v="None"/>
+    <n v="48"/>
+    <n v="40"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Academic"/>
+    <x v="1"/>
+    <s v="Private"/>
+    <n v="29"/>
+    <n v="26"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Academic"/>
+    <x v="0"/>
+    <s v="Public"/>
+    <n v="6"/>
+    <n v="8"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Academic"/>
+    <x v="1"/>
+    <s v="None"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="5"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19876A2D-6EC3-4A1F-B837-A30E04328511}" name="AcademicPivotTable" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+  <location ref="A1:E15" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" compact="0" showAll="0">
+      <items count="11">
+        <item x="9"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of 2021" fld="4" baseField="2" baseItem="1" numFmtId="1"/>
+    <dataField name="Sum of 2022" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 2023" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6ED412C0-9149-4012-A8DA-50451699200B}" name="StudentRepresentatives" displayName="StudentRepresentatives" ref="A1:J31" totalsRowShown="0">
   <autoFilter ref="A1:J31" xr:uid="{1A9B7A2C-E01B-400B-853F-1C0BC5C27B56}"/>
@@ -1201,12 +1477,16 @@
     <tableColumn id="2" xr3:uid="{6F12DEC4-7556-41C4-AFAA-756E40A641DB}" name="Name"/>
     <tableColumn id="3" xr3:uid="{000CF54F-9F39-418F-B82E-765C6DC0A1A6}" name="Age"/>
     <tableColumn id="4" xr3:uid="{0A5CF5FA-4D44-4472-BEC8-607E2B9A7530}" name="Post-Secondary Years"/>
-    <tableColumn id="5" xr3:uid="{D74478F3-7DCF-40EB-8C00-F638C8B509CF}" name="Base Rate" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{D74478F3-7DCF-40EB-8C00-F638C8B509CF}" name="Base Rate" dataDxfId="1">
+      <calculatedColumnFormula>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="6" xr3:uid="{462D1CEB-F948-4B00-BFD0-99BB48BDA26A}" name="Class"/>
     <tableColumn id="15" xr3:uid="{E803B205-6028-4314-B03F-FAA2B2D15432}" name="Finance Certified"/>
     <tableColumn id="8" xr3:uid="{1FD14ED6-7F13-473E-9D30-95A3A1F25A8A}" name="Grad Student"/>
     <tableColumn id="9" xr3:uid="{4857A5F3-8DB4-4869-A2D4-E1AE5CDD3BF3}" name="Elected"/>
-    <tableColumn id="10" xr3:uid="{F7F5D44F-C3ED-4D59-AB8F-F6218A8170A0}" name="Qualified Driver" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{F7F5D44F-C3ED-4D59-AB8F-F6218A8170A0}" name="Qualified Driver" dataDxfId="0">
+      <calculatedColumnFormula>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1530,7 +1810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EAB745-FF8B-8A4A-B5FC-CB63BCBBC092}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -1586,25 +1866,25 @@
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
     </row>
     <row r="10" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
     </row>
     <row r="11" spans="1:3" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="21" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1612,7 +1892,7 @@
       <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="22" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1620,89 +1900,89 @@
       <c r="A16" s="3">
         <v>2</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="22" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>3</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="22" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1725,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B0ED47-E60B-4E94-B2AD-559CA4868BCB}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,7 +2075,10 @@
       <c r="D2">
         <v>6</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>16.5</v>
+      </c>
       <c r="F2">
         <v>2022</v>
       </c>
@@ -1807,6 +2090,10 @@
       </c>
       <c r="I2" t="s">
         <v>44</v>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>47</v>
@@ -1828,7 +2115,10 @@
       <c r="D3">
         <v>7</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>16.5</v>
+      </c>
       <c r="F3">
         <v>2023</v>
       </c>
@@ -1840,6 +2130,10 @@
       </c>
       <c r="I3" t="s">
         <v>43</v>
+      </c>
+      <c r="J3" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>48</v>
@@ -1862,7 +2156,10 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>15.75</v>
+      </c>
       <c r="F4">
         <v>2022</v>
       </c>
@@ -1874,6 +2171,10 @@
       </c>
       <c r="I4" t="s">
         <v>43</v>
+      </c>
+      <c r="J4" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>No</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1889,7 +2190,10 @@
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>15.75</v>
+      </c>
       <c r="F5">
         <v>2023</v>
       </c>
@@ -1901,6 +2205,10 @@
       </c>
       <c r="I5" t="s">
         <v>44</v>
+      </c>
+      <c r="J5" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>No</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1916,7 +2224,10 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>15.75</v>
+      </c>
       <c r="F6">
         <v>2024</v>
       </c>
@@ -1928,6 +2239,10 @@
       </c>
       <c r="I6" t="s">
         <v>43</v>
+      </c>
+      <c r="J6" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>No</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1943,7 +2258,10 @@
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>16.5</v>
+      </c>
       <c r="F7">
         <v>2025</v>
       </c>
@@ -1955,6 +2273,10 @@
       </c>
       <c r="I7" t="s">
         <v>44</v>
+      </c>
+      <c r="J7" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>Yes</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1970,7 +2292,10 @@
       <c r="D8">
         <v>10</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>17.5</v>
+      </c>
       <c r="F8">
         <v>2022</v>
       </c>
@@ -1982,6 +2307,10 @@
       </c>
       <c r="I8" t="s">
         <v>44</v>
+      </c>
+      <c r="J8" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>Yes</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1997,7 +2326,10 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>15</v>
+      </c>
       <c r="F9">
         <v>2026</v>
       </c>
@@ -2009,6 +2341,10 @@
       </c>
       <c r="I9" t="s">
         <v>44</v>
+      </c>
+      <c r="J9" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>No</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -2024,7 +2360,10 @@
       <c r="D10">
         <v>6</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>16.5</v>
+      </c>
       <c r="F10">
         <v>2025</v>
       </c>
@@ -2036,6 +2375,10 @@
       </c>
       <c r="I10" t="s">
         <v>43</v>
+      </c>
+      <c r="J10" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>Yes</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -2051,7 +2394,10 @@
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>15.75</v>
+      </c>
       <c r="F11">
         <v>2022</v>
       </c>
@@ -2063,6 +2409,10 @@
       </c>
       <c r="I11" t="s">
         <v>44</v>
+      </c>
+      <c r="J11" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>No</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -2078,7 +2428,10 @@
       <c r="D12">
         <v>5</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>16.5</v>
+      </c>
       <c r="F12">
         <v>2023</v>
       </c>
@@ -2090,6 +2443,10 @@
       </c>
       <c r="I12" t="s">
         <v>44</v>
+      </c>
+      <c r="J12" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>Yes</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -2105,7 +2462,10 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>15</v>
+      </c>
       <c r="F13">
         <v>2024</v>
       </c>
@@ -2117,6 +2477,10 @@
       </c>
       <c r="I13" t="s">
         <v>44</v>
+      </c>
+      <c r="J13" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>No</v>
       </c>
       <c r="L13" s="16" t="s">
         <v>49</v>
@@ -2150,7 +2514,10 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>15.25</v>
+      </c>
       <c r="F14">
         <v>2026</v>
       </c>
@@ -2162,6 +2529,10 @@
       </c>
       <c r="I14" t="s">
         <v>44</v>
+      </c>
+      <c r="J14" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>No</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>46</v>
@@ -2195,7 +2566,10 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>15.75</v>
+      </c>
       <c r="F15">
         <v>2023</v>
       </c>
@@ -2207,6 +2581,10 @@
       </c>
       <c r="I15" t="s">
         <v>44</v>
+      </c>
+      <c r="J15" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>No</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -2222,7 +2600,10 @@
       <c r="D16">
         <v>8</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>17.5</v>
+      </c>
       <c r="F16">
         <v>2023</v>
       </c>
@@ -2235,8 +2616,12 @@
       <c r="I16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -2249,7 +2634,10 @@
       <c r="D17">
         <v>4</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>15.75</v>
+      </c>
       <c r="F17">
         <v>2025</v>
       </c>
@@ -2262,8 +2650,12 @@
       <c r="I17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -2276,7 +2668,10 @@
       <c r="D18">
         <v>4</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>15.75</v>
+      </c>
       <c r="F18">
         <v>2022</v>
       </c>
@@ -2289,8 +2684,12 @@
       <c r="I18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -2303,7 +2702,10 @@
       <c r="D19">
         <v>2</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>15.75</v>
+      </c>
       <c r="F19">
         <v>2022</v>
       </c>
@@ -2316,8 +2718,12 @@
       <c r="I19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -2330,7 +2736,10 @@
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>15.75</v>
+      </c>
       <c r="F20">
         <v>2026</v>
       </c>
@@ -2343,8 +2752,12 @@
       <c r="I20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -2357,7 +2770,10 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>15.25</v>
+      </c>
       <c r="F21">
         <v>2022</v>
       </c>
@@ -2370,8 +2786,12 @@
       <c r="I21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -2384,7 +2804,10 @@
       <c r="D22">
         <v>2</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>15.75</v>
+      </c>
       <c r="F22">
         <v>2025</v>
       </c>
@@ -2397,8 +2820,12 @@
       <c r="I22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -2411,7 +2838,10 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>15</v>
+      </c>
       <c r="F23">
         <v>2024</v>
       </c>
@@ -2424,8 +2854,12 @@
       <c r="I23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -2438,7 +2872,10 @@
       <c r="D24">
         <v>5</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>16.5</v>
+      </c>
       <c r="F24">
         <v>2023</v>
       </c>
@@ -2451,8 +2888,12 @@
       <c r="I24" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -2465,7 +2906,10 @@
       <c r="D25">
         <v>6</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>16.5</v>
+      </c>
       <c r="F25">
         <v>2022</v>
       </c>
@@ -2478,8 +2922,12 @@
       <c r="I25" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -2492,7 +2940,10 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>15</v>
+      </c>
       <c r="F26">
         <v>2025</v>
       </c>
@@ -2505,8 +2956,12 @@
       <c r="I26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -2519,7 +2974,10 @@
       <c r="D27">
         <v>5</v>
       </c>
-      <c r="E27" s="13"/>
+      <c r="E27" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>16.5</v>
+      </c>
       <c r="F27">
         <v>2023</v>
       </c>
@@ -2532,8 +2990,12 @@
       <c r="I27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -2546,7 +3008,10 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>15.25</v>
+      </c>
       <c r="F28">
         <v>2023</v>
       </c>
@@ -2559,8 +3024,12 @@
       <c r="I28" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -2573,7 +3042,10 @@
       <c r="D29">
         <v>9</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>17.5</v>
+      </c>
       <c r="F29">
         <v>2023</v>
       </c>
@@ -2586,8 +3058,12 @@
       <c r="I29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -2600,7 +3076,10 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>15.25</v>
+      </c>
       <c r="F30">
         <v>2022</v>
       </c>
@@ -2613,8 +3092,12 @@
       <c r="I30" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -2627,7 +3110,10 @@
       <c r="D31">
         <v>7</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="E31" s="13">
+        <f>HLOOKUP(StudentRepresentatives[[#This Row],[Post-Secondary Years]],$L$13:$Q$14,2,TRUE)</f>
+        <v>16.5</v>
+      </c>
       <c r="F31">
         <v>2023</v>
       </c>
@@ -2640,9 +3126,13 @@
       <c r="I31" t="s">
         <v>43</v>
       </c>
+      <c r="J31" t="str">
+        <f>IF(StudentRepresentatives[[#This Row],[Age]]&gt;=23,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="23" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2650,7 +3140,7 @@
       <c r="A35">
         <v>1</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="22" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2658,7 +3148,7 @@
       <c r="A36">
         <v>2</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="22" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2666,50 +3156,50 @@
       <c r="A37">
         <v>3</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
     </row>
     <row r="43" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="22" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2717,7 +3207,7 @@
       <c r="A44">
         <v>5</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="22" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2725,7 +3215,7 @@
       <c r="A46">
         <v>6</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="22" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2749,7 +3239,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,7 +3302,7 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="22" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2841,7 +3331,7 @@
       <c r="K3">
         <v>2</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="22" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2870,7 +3360,7 @@
       <c r="K4">
         <v>3</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="22" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3041,7 +3531,10 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="19" t="str">
+        <f>INDEX(AcademicGroups[],1,1)</f>
+        <v>Computing Club</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
@@ -3049,7 +3542,10 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="20">
+        <f>SUMIF(AcademicGroups[2023],"&gt;40",AcademicGroups[2023])</f>
+        <v>377</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3064,32 +3560,76 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185986B0-D20D-4E7F-8311-FE7AC4EAA6E7}">
-  <dimension ref="O1:U10"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
+        <v>132</v>
+      </c>
       <c r="O1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="15:21" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="35">
+        <v>97</v>
+      </c>
+      <c r="D2" s="34">
+        <v>140</v>
+      </c>
+      <c r="E2" s="34">
+        <v>179</v>
+      </c>
       <c r="O2">
         <v>1</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="22" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="35">
+        <v>37</v>
+      </c>
+      <c r="D3" s="34">
+        <v>51</v>
+      </c>
+      <c r="E3" s="34">
+        <v>76</v>
+      </c>
       <c r="O3">
         <v>2</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="24" t="s">
         <v>121</v>
       </c>
       <c r="Q3" s="17"/>
@@ -3098,11 +3638,23 @@
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
     </row>
-    <row r="4" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="35">
+        <v>54</v>
+      </c>
+      <c r="D4" s="34">
+        <v>81</v>
+      </c>
+      <c r="E4" s="34">
+        <v>93</v>
+      </c>
       <c r="O4">
         <v>3</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="25" t="s">
         <v>122</v>
       </c>
       <c r="Q4" s="17"/>
@@ -3111,11 +3663,23 @@
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
     </row>
-    <row r="5" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="35">
+        <v>6</v>
+      </c>
+      <c r="D5" s="34">
+        <v>8</v>
+      </c>
+      <c r="E5" s="34">
+        <v>10</v>
+      </c>
       <c r="O5">
         <v>4</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="26" t="s">
         <v>123</v>
       </c>
       <c r="Q5" s="17"/>
@@ -3124,11 +3688,23 @@
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
     </row>
-    <row r="6" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="35">
+        <v>159</v>
+      </c>
+      <c r="D6" s="34">
+        <v>158</v>
+      </c>
+      <c r="E6" s="34">
+        <v>183</v>
+      </c>
       <c r="O6">
         <v>5</v>
       </c>
-      <c r="P6" s="31" t="s">
+      <c r="P6" s="25" t="s">
         <v>124</v>
       </c>
       <c r="Q6" s="17"/>
@@ -3137,11 +3713,23 @@
       <c r="T6" s="17"/>
       <c r="U6" s="17"/>
     </row>
-    <row r="7" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="35">
+        <v>5</v>
+      </c>
+      <c r="D7" s="34">
+        <v>6</v>
+      </c>
+      <c r="E7" s="34">
+        <v>5</v>
+      </c>
       <c r="O7">
         <v>6</v>
       </c>
-      <c r="P7" s="32" t="s">
+      <c r="P7" s="26" t="s">
         <v>125</v>
       </c>
       <c r="Q7" s="17"/>
@@ -3150,11 +3738,23 @@
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
     </row>
-    <row r="8" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="35">
+        <v>30</v>
+      </c>
+      <c r="D8" s="34">
+        <v>32</v>
+      </c>
+      <c r="E8" s="34">
+        <v>51</v>
+      </c>
       <c r="O8">
         <v>7</v>
       </c>
-      <c r="P8" s="31" t="s">
+      <c r="P8" s="25" t="s">
         <v>126</v>
       </c>
       <c r="Q8" s="17"/>
@@ -3163,11 +3763,23 @@
       <c r="T8" s="17"/>
       <c r="U8" s="17"/>
     </row>
-    <row r="9" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="35">
+        <v>48</v>
+      </c>
+      <c r="D9" s="34">
+        <v>40</v>
+      </c>
+      <c r="E9" s="34">
+        <v>40</v>
+      </c>
       <c r="O9">
         <v>8</v>
       </c>
-      <c r="P9" s="31" t="s">
+      <c r="P9" s="25" t="s">
         <v>127</v>
       </c>
       <c r="Q9" s="17"/>
@@ -3176,11 +3788,23 @@
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
     </row>
-    <row r="10" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="35">
+        <v>47</v>
+      </c>
+      <c r="D10" s="34">
+        <v>54</v>
+      </c>
+      <c r="E10" s="34">
+        <v>64</v>
+      </c>
       <c r="O10">
         <v>9</v>
       </c>
-      <c r="P10" s="32" t="s">
+      <c r="P10" s="26" t="s">
         <v>128</v>
       </c>
       <c r="Q10" s="17"/>
@@ -3189,8 +3813,79 @@
       <c r="T10" s="17"/>
       <c r="U10" s="17"/>
     </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="35">
+        <v>29</v>
+      </c>
+      <c r="D11" s="34">
+        <v>26</v>
+      </c>
+      <c r="E11" s="34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="35">
+        <v>89</v>
+      </c>
+      <c r="D12" s="34">
+        <v>91</v>
+      </c>
+      <c r="E12" s="34">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="35">
+        <v>45</v>
+      </c>
+      <c r="D13" s="34">
+        <v>44</v>
+      </c>
+      <c r="E13" s="34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="35">
+        <v>44</v>
+      </c>
+      <c r="D14" s="34">
+        <v>47</v>
+      </c>
+      <c r="E14" s="34">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="35">
+        <v>345</v>
+      </c>
+      <c r="D15" s="34">
+        <v>389</v>
+      </c>
+      <c r="E15" s="34">
+        <v>455</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
